--- a/rider/weekly/2017_18.xlsx
+++ b/rider/weekly/2017_18.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>221</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>203</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>289</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>188</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>247</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>225.24</c:v>
+                  <c:v>227.68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>215.19</c:v>
+                  <c:v>220.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>222.41</c:v>
+                  <c:v>213.93</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>235.19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>241.11</c:v>
+                  <c:v>241.41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111.61</c:v>
+                  <c:v>112.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.92</c:v>
+                  <c:v>90.65000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="D2">
-        <v>225.24</v>
+        <v>227.68</v>
       </c>
       <c r="E2">
         <v>117.72</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="D3">
-        <v>215.19</v>
+        <v>220.11</v>
       </c>
       <c r="E3">
         <v>117.88</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="D4">
-        <v>222.41</v>
+        <v>213.93</v>
       </c>
       <c r="E4">
         <v>118.04</v>
@@ -861,7 +861,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D5">
         <v>235.19</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="D6">
-        <v>241.11</v>
+        <v>241.41</v>
       </c>
       <c r="E6">
         <v>118.37</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>111.61</v>
+        <v>112.11</v>
       </c>
       <c r="E7">
         <v>118.53</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8">
-        <v>90.92</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="E8">
         <v>118.69</v>
